--- a/stock/data/에코프로머티리얼즈.xlsx
+++ b/stock/data/에코프로머티리얼즈.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:G124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2538,10 +2538,769 @@
         <v>130800</v>
       </c>
       <c r="F91" t="n">
-        <v>317523</v>
+        <v>321832</v>
       </c>
       <c r="G91" t="n">
         <v>-2.095808383233533</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B92" t="n">
+        <v>130000</v>
+      </c>
+      <c r="C92" t="n">
+        <v>134300</v>
+      </c>
+      <c r="D92" t="n">
+        <v>127900</v>
+      </c>
+      <c r="E92" t="n">
+        <v>131500</v>
+      </c>
+      <c r="F92" t="n">
+        <v>368245</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.5351681957186544</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="B93" t="n">
+        <v>129900</v>
+      </c>
+      <c r="C93" t="n">
+        <v>131400</v>
+      </c>
+      <c r="D93" t="n">
+        <v>123000</v>
+      </c>
+      <c r="E93" t="n">
+        <v>123500</v>
+      </c>
+      <c r="F93" t="n">
+        <v>475875</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-6.083650190114068</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="B94" t="n">
+        <v>120500</v>
+      </c>
+      <c r="C94" t="n">
+        <v>122700</v>
+      </c>
+      <c r="D94" t="n">
+        <v>117600</v>
+      </c>
+      <c r="E94" t="n">
+        <v>118700</v>
+      </c>
+      <c r="F94" t="n">
+        <v>421835</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-3.886639676113361</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="B95" t="n">
+        <v>119700</v>
+      </c>
+      <c r="C95" t="n">
+        <v>127900</v>
+      </c>
+      <c r="D95" t="n">
+        <v>118700</v>
+      </c>
+      <c r="E95" t="n">
+        <v>119100</v>
+      </c>
+      <c r="F95" t="n">
+        <v>605433</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.3369839932603201</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="B96" t="n">
+        <v>120600</v>
+      </c>
+      <c r="C96" t="n">
+        <v>125500</v>
+      </c>
+      <c r="D96" t="n">
+        <v>115900</v>
+      </c>
+      <c r="E96" t="n">
+        <v>117500</v>
+      </c>
+      <c r="F96" t="n">
+        <v>497509</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-1.343408900083963</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B97" t="n">
+        <v>115900</v>
+      </c>
+      <c r="C97" t="n">
+        <v>118700</v>
+      </c>
+      <c r="D97" t="n">
+        <v>112100</v>
+      </c>
+      <c r="E97" t="n">
+        <v>117600</v>
+      </c>
+      <c r="F97" t="n">
+        <v>332626</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.0851063829787234</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="B98" t="n">
+        <v>120400</v>
+      </c>
+      <c r="C98" t="n">
+        <v>134100</v>
+      </c>
+      <c r="D98" t="n">
+        <v>120300</v>
+      </c>
+      <c r="E98" t="n">
+        <v>122800</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1225384</v>
+      </c>
+      <c r="G98" t="n">
+        <v>4.421768707482993</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="B99" t="n">
+        <v>120000</v>
+      </c>
+      <c r="C99" t="n">
+        <v>124300</v>
+      </c>
+      <c r="D99" t="n">
+        <v>118000</v>
+      </c>
+      <c r="E99" t="n">
+        <v>119500</v>
+      </c>
+      <c r="F99" t="n">
+        <v>295540</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-2.687296416938111</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B100" t="n">
+        <v>120800</v>
+      </c>
+      <c r="C100" t="n">
+        <v>122600</v>
+      </c>
+      <c r="D100" t="n">
+        <v>114700</v>
+      </c>
+      <c r="E100" t="n">
+        <v>114700</v>
+      </c>
+      <c r="F100" t="n">
+        <v>295598</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-4.01673640167364</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B101" t="n">
+        <v>111000</v>
+      </c>
+      <c r="C101" t="n">
+        <v>115500</v>
+      </c>
+      <c r="D101" t="n">
+        <v>110500</v>
+      </c>
+      <c r="E101" t="n">
+        <v>113400</v>
+      </c>
+      <c r="F101" t="n">
+        <v>224633</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-1.133391455972101</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45398</v>
+      </c>
+      <c r="B102" t="n">
+        <v>110900</v>
+      </c>
+      <c r="C102" t="n">
+        <v>111900</v>
+      </c>
+      <c r="D102" t="n">
+        <v>107900</v>
+      </c>
+      <c r="E102" t="n">
+        <v>108200</v>
+      </c>
+      <c r="F102" t="n">
+        <v>244155</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-4.585537918871252</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45399</v>
+      </c>
+      <c r="B103" t="n">
+        <v>108300</v>
+      </c>
+      <c r="C103" t="n">
+        <v>110200</v>
+      </c>
+      <c r="D103" t="n">
+        <v>103800</v>
+      </c>
+      <c r="E103" t="n">
+        <v>104200</v>
+      </c>
+      <c r="F103" t="n">
+        <v>244939</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-3.696857670979667</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="B104" t="n">
+        <v>105000</v>
+      </c>
+      <c r="C104" t="n">
+        <v>112100</v>
+      </c>
+      <c r="D104" t="n">
+        <v>104600</v>
+      </c>
+      <c r="E104" t="n">
+        <v>111000</v>
+      </c>
+      <c r="F104" t="n">
+        <v>310610</v>
+      </c>
+      <c r="G104" t="n">
+        <v>6.525911708253358</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="B105" t="n">
+        <v>109900</v>
+      </c>
+      <c r="C105" t="n">
+        <v>111600</v>
+      </c>
+      <c r="D105" t="n">
+        <v>105600</v>
+      </c>
+      <c r="E105" t="n">
+        <v>108300</v>
+      </c>
+      <c r="F105" t="n">
+        <v>204262</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-2.432432432432432</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B106" t="n">
+        <v>110400</v>
+      </c>
+      <c r="C106" t="n">
+        <v>118900</v>
+      </c>
+      <c r="D106" t="n">
+        <v>109600</v>
+      </c>
+      <c r="E106" t="n">
+        <v>118200</v>
+      </c>
+      <c r="F106" t="n">
+        <v>410323</v>
+      </c>
+      <c r="G106" t="n">
+        <v>9.141274238227147</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45405</v>
+      </c>
+      <c r="B107" t="n">
+        <v>117300</v>
+      </c>
+      <c r="C107" t="n">
+        <v>118700</v>
+      </c>
+      <c r="D107" t="n">
+        <v>112000</v>
+      </c>
+      <c r="E107" t="n">
+        <v>112600</v>
+      </c>
+      <c r="F107" t="n">
+        <v>281157</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-4.737732656514383</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45406</v>
+      </c>
+      <c r="B108" t="n">
+        <v>119400</v>
+      </c>
+      <c r="C108" t="n">
+        <v>123600</v>
+      </c>
+      <c r="D108" t="n">
+        <v>115600</v>
+      </c>
+      <c r="E108" t="n">
+        <v>122200</v>
+      </c>
+      <c r="F108" t="n">
+        <v>633099</v>
+      </c>
+      <c r="G108" t="n">
+        <v>8.525754884547069</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45407</v>
+      </c>
+      <c r="B109" t="n">
+        <v>123100</v>
+      </c>
+      <c r="C109" t="n">
+        <v>124800</v>
+      </c>
+      <c r="D109" t="n">
+        <v>114600</v>
+      </c>
+      <c r="E109" t="n">
+        <v>114600</v>
+      </c>
+      <c r="F109" t="n">
+        <v>541278</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-6.219312602291326</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="B110" t="n">
+        <v>116300</v>
+      </c>
+      <c r="C110" t="n">
+        <v>118700</v>
+      </c>
+      <c r="D110" t="n">
+        <v>113000</v>
+      </c>
+      <c r="E110" t="n">
+        <v>117700</v>
+      </c>
+      <c r="F110" t="n">
+        <v>270218</v>
+      </c>
+      <c r="G110" t="n">
+        <v>2.705061082024433</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B111" t="n">
+        <v>116700</v>
+      </c>
+      <c r="C111" t="n">
+        <v>122400</v>
+      </c>
+      <c r="D111" t="n">
+        <v>115700</v>
+      </c>
+      <c r="E111" t="n">
+        <v>121800</v>
+      </c>
+      <c r="F111" t="n">
+        <v>304869</v>
+      </c>
+      <c r="G111" t="n">
+        <v>3.483432455395072</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B112" t="n">
+        <v>125600</v>
+      </c>
+      <c r="C112" t="n">
+        <v>126200</v>
+      </c>
+      <c r="D112" t="n">
+        <v>117100</v>
+      </c>
+      <c r="E112" t="n">
+        <v>117400</v>
+      </c>
+      <c r="F112" t="n">
+        <v>357081</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-3.61247947454844</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B113" t="n">
+        <v>117200</v>
+      </c>
+      <c r="C113" t="n">
+        <v>117200</v>
+      </c>
+      <c r="D113" t="n">
+        <v>112600</v>
+      </c>
+      <c r="E113" t="n">
+        <v>114800</v>
+      </c>
+      <c r="F113" t="n">
+        <v>187156</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-2.214650766609881</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="B114" t="n">
+        <v>114000</v>
+      </c>
+      <c r="C114" t="n">
+        <v>115600</v>
+      </c>
+      <c r="D114" t="n">
+        <v>109300</v>
+      </c>
+      <c r="E114" t="n">
+        <v>109800</v>
+      </c>
+      <c r="F114" t="n">
+        <v>269646</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-4.355400696864112</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45419</v>
+      </c>
+      <c r="B115" t="n">
+        <v>110700</v>
+      </c>
+      <c r="C115" t="n">
+        <v>111200</v>
+      </c>
+      <c r="D115" t="n">
+        <v>107200</v>
+      </c>
+      <c r="E115" t="n">
+        <v>108300</v>
+      </c>
+      <c r="F115" t="n">
+        <v>218627</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-1.366120218579235</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45420</v>
+      </c>
+      <c r="B116" t="n">
+        <v>107600</v>
+      </c>
+      <c r="C116" t="n">
+        <v>108100</v>
+      </c>
+      <c r="D116" t="n">
+        <v>103900</v>
+      </c>
+      <c r="E116" t="n">
+        <v>106700</v>
+      </c>
+      <c r="F116" t="n">
+        <v>252283</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-1.477377654662973</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B117" t="n">
+        <v>106000</v>
+      </c>
+      <c r="C117" t="n">
+        <v>106300</v>
+      </c>
+      <c r="D117" t="n">
+        <v>103000</v>
+      </c>
+      <c r="E117" t="n">
+        <v>103200</v>
+      </c>
+      <c r="F117" t="n">
+        <v>161331</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-3.280224929709466</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="B118" t="n">
+        <v>103200</v>
+      </c>
+      <c r="C118" t="n">
+        <v>105000</v>
+      </c>
+      <c r="D118" t="n">
+        <v>101000</v>
+      </c>
+      <c r="E118" t="n">
+        <v>101000</v>
+      </c>
+      <c r="F118" t="n">
+        <v>183896</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-2.131782945736434</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B119" t="n">
+        <v>99900</v>
+      </c>
+      <c r="C119" t="n">
+        <v>100500</v>
+      </c>
+      <c r="D119" t="n">
+        <v>96900</v>
+      </c>
+      <c r="E119" t="n">
+        <v>97100</v>
+      </c>
+      <c r="F119" t="n">
+        <v>280264</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-3.861386138613861</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45426</v>
+      </c>
+      <c r="B120" t="n">
+        <v>96900</v>
+      </c>
+      <c r="C120" t="n">
+        <v>98600</v>
+      </c>
+      <c r="D120" t="n">
+        <v>95400</v>
+      </c>
+      <c r="E120" t="n">
+        <v>97200</v>
+      </c>
+      <c r="F120" t="n">
+        <v>262673</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.1029866117404737</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="B121" t="n">
+        <v>98300</v>
+      </c>
+      <c r="C121" t="n">
+        <v>100500</v>
+      </c>
+      <c r="D121" t="n">
+        <v>95600</v>
+      </c>
+      <c r="E121" t="n">
+        <v>96900</v>
+      </c>
+      <c r="F121" t="n">
+        <v>333233</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-0.308641975308642</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="B122" t="n">
+        <v>96400</v>
+      </c>
+      <c r="C122" t="n">
+        <v>106000</v>
+      </c>
+      <c r="D122" t="n">
+        <v>95000</v>
+      </c>
+      <c r="E122" t="n">
+        <v>98300</v>
+      </c>
+      <c r="F122" t="n">
+        <v>773134</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1.444788441692466</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B123" t="n">
+        <v>99600</v>
+      </c>
+      <c r="C123" t="n">
+        <v>106600</v>
+      </c>
+      <c r="D123" t="n">
+        <v>99200</v>
+      </c>
+      <c r="E123" t="n">
+        <v>103000</v>
+      </c>
+      <c r="F123" t="n">
+        <v>479934</v>
+      </c>
+      <c r="G123" t="n">
+        <v>4.781281790437437</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="B124" t="n">
+        <v>97000</v>
+      </c>
+      <c r="C124" t="n">
+        <v>97000</v>
+      </c>
+      <c r="D124" t="n">
+        <v>90100</v>
+      </c>
+      <c r="E124" t="n">
+        <v>90100</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1167404</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-12.52427184466019</v>
       </c>
     </row>
   </sheetData>
